--- a/bbdd_GDP.xlsx
+++ b/bbdd_GDP.xlsx
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>611.471</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>4.677</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>30.883</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="B5">
         <v>277.269</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="B7">
         <v>50.949</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="B8">
         <v>95.13</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="B9">
         <v>21.991</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="B10">
         <v>52.989</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="B11">
         <v>4.168</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>104</v>
+        <v>340</v>
       </c>
       <c r="B12">
         <v>18.5</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>188</v>
+        <v>558</v>
       </c>
       <c r="B13">
         <v>10.983</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>156</v>
+        <v>600</v>
       </c>
       <c r="B14">
         <v>38.651</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>328</v>
+        <v>858</v>
       </c>
       <c r="B15">
         <v>62.09399999999999</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>332</v>
+        <v>862</v>
       </c>
       <c r="B16">
         <v>258.986</v>
